--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3709152.166129023</v>
+        <v>3706775.539181657</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7603803.54771037</v>
+        <v>7603803.547710369</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.43995086960381</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.1175458707144</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>39.15797524740199</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>62.77855549227159</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>331.7645910079802</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>115.6532283794929</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>10.24924571897635</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>35.97805950120905</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>350.8609498937832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>41.00930247648635</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>30.09519610355519</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.16463037378316</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>38.21875275158355</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695442</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>184.4977429617869</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695484</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187862</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>41.02686156550217</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>119.6760079449696</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>207.7302028825775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>66.25628701154714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.8970375929177</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460529</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>662.3527266874014</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1025.614745646621</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>516.834961214797</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="C4" t="n">
-        <v>347.89877828689</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>347.89877828689</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>516.834961214797</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>516.834961214797</v>
+        <v>535.7199774115534</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.574246756697</v>
+        <v>864.8611267254491</v>
       </c>
       <c r="C5" t="n">
-        <v>829.6117298162851</v>
+        <v>864.8611267254491</v>
       </c>
       <c r="D5" t="n">
-        <v>471.3460312095346</v>
+        <v>864.8611267254491</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>479.0728741272049</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>472.1273733780014</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.31341879663</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.174086820819</v>
+        <v>1251.460966789571</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681273</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.7932119894607</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="C7" t="n">
-        <v>771.8570290615538</v>
+        <v>359.6292930162434</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>209.5126536039077</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>61.59956002151458</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063346</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W7" t="n">
-        <v>1122.4416768197</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X7" t="n">
-        <v>1122.4416768197</v>
+        <v>762.0703369900133</v>
       </c>
       <c r="Y7" t="n">
-        <v>1122.4416768197</v>
+        <v>541.2777578464832</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1214.090290083872</v>
+        <v>904.8820361188241</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>535.9195191784124</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>177.6538205716619</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320764</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X8" t="n">
-        <v>1604.229622059684</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y8" t="n">
-        <v>1214.090290083872</v>
+        <v>1291.481876182946</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1946.556931114679</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080695</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2561.393271046732</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657494</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378425</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255067</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431136</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>101.9181303799053</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>732.3487252516925</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>504.3591743536751</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959891</v>
+        <v>283.566595210145</v>
       </c>
     </row>
     <row r="11">
@@ -5039,13 +5039,13 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5081,7 +5081,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2225.50344847599</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2077.746892708107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1788.671666052305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,22 +5741,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>448.1846595309963</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>943.510265746755</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6546,19 +6546,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>481.447947124485</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>186.6449060441816</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7497,16 +7497,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70.03064962107908</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>154.0169020165195</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282443</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>224.3355197601767</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>255.8421700460939</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.89339468985634</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>179.1866975757047</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>32.90770736550132</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>48.3947522799763</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>25.74504007796168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.7699989900974</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>671283.0564728597</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>671283.0564728597</v>
+        <v>671283.0564728596</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321525</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321525</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>653036.6073321528</v>
+        <v>653036.6073321527</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055057</v>
-      </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426732014</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731998</v>
+      </c>
+      <c r="H4" t="n">
         <v>8117.312426731975</v>
       </c>
-      <c r="F4" t="n">
-        <v>8117.312426732015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426732006</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="I4" t="n">
-        <v>8117.312426731987</v>
-      </c>
       <c r="J4" t="n">
+        <v>8117.312426731967</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426732039</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426732039</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426732029</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426732039</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-562017.8749065583</v>
+        <v>-562017.8749065589</v>
       </c>
       <c r="C6" t="n">
         <v>552733.9086693611</v>
       </c>
       <c r="D6" t="n">
-        <v>552733.9086693611</v>
+        <v>552733.9086693609</v>
       </c>
       <c r="E6" t="n">
-        <v>150063.9858303206</v>
+        <v>150029.2479048855</v>
       </c>
       <c r="F6" t="n">
-        <v>657549.4274548671</v>
+        <v>657514.6895294309</v>
       </c>
       <c r="G6" t="n">
-        <v>657549.4274548667</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="H6" t="n">
-        <v>657549.4274548668</v>
+        <v>657514.6895294311</v>
       </c>
       <c r="I6" t="n">
-        <v>657549.4274548665</v>
+        <v>657514.6895294313</v>
       </c>
       <c r="J6" t="n">
-        <v>489944.2496448843</v>
+        <v>489909.5117194485</v>
       </c>
       <c r="K6" t="n">
-        <v>657549.4274548667</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="L6" t="n">
-        <v>657549.4274548671</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="M6" t="n">
-        <v>524942.1337259401</v>
+        <v>524907.3958005046</v>
       </c>
       <c r="N6" t="n">
-        <v>657549.4274548668</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="O6" t="n">
-        <v>657549.4274548669</v>
+        <v>657514.6895294312</v>
       </c>
       <c r="P6" t="n">
-        <v>657549.4274548671</v>
+        <v>657514.6895294312</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6252644185777e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>532.1234559996094</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>532.1234559996096</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2938907938768</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>238.8128242015474</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>128.0888458512258</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>162.9310998967655</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>50.16577906428154</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>295.8944743934611</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>94.54734948492423</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>250.5449388353819</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>14.41194187722436</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>340.9210675957754</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>115.325851919376</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>116.141969671021</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,34 +31513,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>344.6306853939244</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>429.5828357723605</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>362.180468412921</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>295.9743940159484</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4971006716334</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>628.2482078836097</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>248.5245325067415</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34451,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>367.7110102589293</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>489.4415840126424</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>617.0987427660945</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530507</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.584832100039</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.584832100039</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>505.5216991696262</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0.955613488306449</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>479.7503686470593</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>206.7892464195654</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>161.9999866016181</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>57.6594740049667</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>485.6519634391653</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>114.5501250924112</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
